--- a/example_data/Summary/before/Averages by Sample/Avg Raw Means_before_.xlsx
+++ b/example_data/Summary/before/Averages by Sample/Avg Raw Means_before_.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,144 +438,286 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Animal ID_Event 6</t>
+          <t>Animal ID_Event 10</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Event 6_baseline</t>
+          <t>Event 10_baseline</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Event 6</t>
+          <t>Event 10</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Animal ID_Event 8</t>
+          <t>Animal ID_Event 15</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Event 8_baseline</t>
+          <t>Event 15_baseline</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Event 8</t>
+          <t>Event 15</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Animal ID_Group 1</t>
+          <t>Animal ID_Group 3</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Group 1_baseline</t>
+          <t>Group 3_baseline</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Group 1</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Animal ID_Group 2</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Group 2_baseline</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Group 2</t>
+          <t>Group 3</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.001827227275629435</v>
+        <v>0.004099914092911526</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002035453810447972</v>
+        <v>0.004131437537272024</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.0006594361621238883</v>
+        <v>0.001389951313257704</v>
       </c>
       <c r="F2" t="n">
-        <v>0.001655041196520719</v>
+        <v>0.001064307866714129</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.001437963571127586</v>
+        <v>0.004099914092911526</v>
       </c>
       <c r="I2" t="n">
-        <v>0.001908649605805554</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="K2" t="n">
-        <v>0.001437963571127586</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.001908649605805554</v>
+        <v>0.004131437537272024</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.005066163011429481</v>
+        <v>0.005817178327749129</v>
       </c>
       <c r="C3" t="n">
-        <v>0.004512494312960266</v>
+        <v>0.006075610140792229</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0009838411757951667</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0006654167447084004</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>210</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.005066163011429481</v>
+        <v>0.005817178327749129</v>
       </c>
       <c r="I3" t="n">
-        <v>0.004512494312960266</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="K3" t="n">
-        <v>0.005066163011429481</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.004512494312960266</v>
+        <v>0.006075610140792229</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.008126797986952271</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.0125407986233025</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>0.002863213053542956</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.004148607681359676</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0.008126797986952271</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.0125407986233025</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.001865651213516298</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.001438315795325205</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0.001389951313257704</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.001064307866714129</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.0007567850969068164</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.0006980659168686613</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0.001865651213516298</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.001438315795325205</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.003207993477263987</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.008256300984665479</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0.0008324704565362664</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.0006871828594819076</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.001525578236336244</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.001736626312638098</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>0.003207993477263987</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.008256300984665479</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.004692727312060981</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.005059803373691391</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>0.001525578236336244</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.001736626312638098</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>0.003095660894072135</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.00406948671540033</v>
       </c>
     </row>
   </sheetData>
@@ -589,7 +731,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -600,144 +742,286 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Animal ID_Event 6</t>
+          <t>Animal ID_Event 10</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Event 6_baseline</t>
+          <t>Event 10_baseline</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Event 6</t>
+          <t>Event 10</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Animal ID_Event 8</t>
+          <t>Animal ID_Event 15</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Event 8_baseline</t>
+          <t>Event 15_baseline</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Event 8</t>
+          <t>Event 15</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Animal ID_Group 1</t>
+          <t>Animal ID_Group 3</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Group 1_baseline</t>
+          <t>Group 3_baseline</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Group 1</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Animal ID_Group 2</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Group 2_baseline</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Group 2</t>
+          <t>Group 3</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3129349329414717</v>
+        <v>0.34453538774492</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3485962639533061</v>
+        <v>0.3471844535252439</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.1129364769920776</v>
+        <v>0.2656978120136641</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2834459690681738</v>
+        <v>0.2034490480332709</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.2462687809583403</v>
+        <v>0.34453538774492</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3268794989915953</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="K2" t="n">
-        <v>0.2462687809583403</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.3268794989915953</v>
+        <v>0.3471844535252439</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2582461664044962</v>
+        <v>0.2227856355890419</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2300230676776557</v>
+        <v>0.2326830278437355</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>0.276712381686658</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.1871532283588622</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>210</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.2582461664044962</v>
+        <v>0.2227856355890419</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2300230676776557</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="K3" t="n">
-        <v>0.2582461664044962</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.2300230676776557</v>
+        <v>0.2326830278437355</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.4548508994720775</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.7018992650076354</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>0.2020688011677073</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.2927844226087785</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0.4548508994720775</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.7018992650076354</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.2552829258322618</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.1968092759467805</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0.2656978120136641</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.2034490480332709</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.2128512322334966</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.1963360420190667</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0.2552829258322618</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.1968092759467805</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.07750140951633024</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.199462676042712</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0.2341382820512171</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.1932751041323319</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.2469295882325657</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2810897599872745</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>0.07750140951633024</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.199462676042712</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.3311851980353839</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.357091275691476</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>0.2469295882325657</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.2810897599872745</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>0.2184736077927792</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.2872005284173026</v>
       </c>
     </row>
   </sheetData>
@@ -751,7 +1035,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -762,147 +1046,307 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Animal ID_Event 6</t>
+          <t>Animal ID_Event 10</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Event 6_baseline</t>
+          <t>Event 10_baseline</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Event 6</t>
+          <t>Event 10</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Animal ID_Event 8</t>
+          <t>Animal ID_Event 15</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Event 8_baseline</t>
+          <t>Event 15_baseline</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Event 8</t>
+          <t>Event 15</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Animal ID_Group 1</t>
+          <t>Animal ID_Group 3</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Group 1_baseline</t>
+          <t>Group 3_baseline</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Group 1</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Animal ID_Group 2</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Group 2_baseline</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Group 2</t>
+          <t>Group 3</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.3977903113069431</v>
+        <v>0.4355724909224058</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.1697120038367198</v>
+        <v>0.4544225885556206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-1.676915572067909</v>
+        <v>0.01223641789266421</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.5863921603809543</v>
+        <v>-0.3900094698828693</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>-0.8241653982272651</v>
+        <v>0.4355724909224058</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3086053893514646</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="K2" t="n">
-        <v>-0.8241653982272651</v>
-      </c>
-      <c r="L2" t="n">
-        <v>-0.3086053893514646</v>
+        <v>0.4544225885556206</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.0749236641618638</v>
+        <v>0.1761133346460992</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.3024336893724495</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
+        <v>0.2412974253361099</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>0.3591227687377927</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-0.3780297869153236</v>
+      </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>210</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>-0.0749236641618638</v>
+        <v>0.1761133346460992</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3024336893724495</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="K3" t="n">
-        <v>-0.0749236641618638</v>
-      </c>
-      <c r="L3" t="n">
-        <v>-0.3024336893724495</v>
+        <v>0.2412974253361099</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-0.2289970736448325</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.129301981655622</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>-0.1594692245078154</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.5215605753178196</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>-0.2289970736448325</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.129301981655622</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.0705931770549013</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-0.3150598112767115</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0.01223641789266421</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-0.3900094698828693</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.1665120522396078</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.3024469536014537</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0.0705931770549013</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-0.3150598112767115</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-1.147081917420885</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-0.2453586175716329</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0.008699554752859037</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-0.3276412313727436</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.14635624150668</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.06900048811139559</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>-1.147081917420885</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-0.2453586175716329</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.8098468923433676</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.004331707639006</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>-0.14635624150668</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.06900048811139559</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>-0.03631334468717847</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.4796405809104773</v>
       </c>
     </row>
   </sheetData>
